--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3948674.994804022</v>
+        <v>3946130.402109738</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>96.86671316392815</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>69.9840997650867</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.1083371873407</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>366.129008342077</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>57.89289279068774</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>58.50520007414069</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074814</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>2.934209813006722</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>106.1987279473131</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589163</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>72.8988957410092</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>336.7554768154235</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>336.2479208849542</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1212,25 +1212,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>23.29916283916027</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.5548005097655</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.854692234073541</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>142.7102789975397</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.9094576655913</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.6760079449695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>166.1438437522582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>125.285163539206</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>25.52471385612641</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433435</v>
+        <v>730.1757415093705</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268587</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="U2" t="n">
-        <v>133.0228471103739</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832528</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.7084783396673</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>338.7084783396673</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>189.774068678416</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>679.4113388015558</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>528.128263356152</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>528.128263356152</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U3" t="n">
-        <v>338.7084783396673</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V3" t="n">
-        <v>338.7084783396673</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W3" t="n">
-        <v>338.7084783396673</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X3" t="n">
-        <v>338.7084783396673</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>338.7084783396673</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1155.051547851602</v>
+        <v>769.263295253358</v>
       </c>
       <c r="C5" t="n">
-        <v>1155.051547851602</v>
+        <v>769.263295253358</v>
       </c>
       <c r="D5" t="n">
-        <v>1155.051547851602</v>
+        <v>769.263295253358</v>
       </c>
       <c r="E5" t="n">
-        <v>769.2632952533579</v>
+        <v>769.263295253358</v>
       </c>
       <c r="F5" t="n">
-        <v>358.2773904637504</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>345.901749318246</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017214</v>
       </c>
       <c r="K5" t="n">
         <v>277.980716674697</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030745</v>
+        <v>521.2049416030751</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709147</v>
+        <v>823.5081935709165</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582747</v>
+        <v>1135.31683658275</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079234</v>
+        <v>1416.413635079237</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332756</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837877</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837877</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598225</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598225</v>
+        <v>1491.859231677085</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.994975598225</v>
+        <v>1491.859231677085</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.994975598225</v>
+        <v>1491.859231677085</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.517306112682</v>
+        <v>1139.090576406971</v>
       </c>
       <c r="X5" t="n">
-        <v>1155.051547851602</v>
+        <v>1139.090576406971</v>
       </c>
       <c r="Y5" t="n">
-        <v>1155.051547851602</v>
+        <v>1139.090576406971</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.4126532091979</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="C6" t="n">
-        <v>137.4126532091979</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="D6" t="n">
-        <v>137.4126532091979</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="E6" t="n">
-        <v>137.4126532091979</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="F6" t="n">
-        <v>137.4126532091979</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="G6" t="n">
-        <v>137.4126532091979</v>
+        <v>132.0028829354054</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787491</v>
+        <v>61.66788464787518</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189963</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223478</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352451</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228315</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639504</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703769</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699364</v>
+        <v>1258.309378699367</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419119</v>
+        <v>1062.768760419122</v>
       </c>
       <c r="U6" t="n">
-        <v>834.6536183746751</v>
+        <v>834.6536183746783</v>
       </c>
       <c r="V6" t="n">
-        <v>599.5015101429324</v>
+        <v>599.5015101429356</v>
       </c>
       <c r="W6" t="n">
-        <v>345.2641534147307</v>
+        <v>599.5015101429356</v>
       </c>
       <c r="X6" t="n">
-        <v>137.4126532091979</v>
+        <v>596.5376618469692</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.4126532091979</v>
+        <v>596.5376618469692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.8294986877809</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="C7" t="n">
-        <v>141.8294986877809</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="D7" t="n">
-        <v>141.8294986877809</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675755</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574648</v>
+        <v>64.24066662574674</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834796</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195351</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934698</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857983</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857983</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857983</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857983</v>
+        <v>332.5350520040909</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857983</v>
+        <v>108.1933045399992</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857983</v>
+        <v>108.1933045399992</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857983</v>
+        <v>108.1933045399992</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857983</v>
+        <v>108.1933045399992</v>
       </c>
       <c r="X7" t="n">
-        <v>141.8294986877809</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.8294986877809</v>
+        <v>34.55805631675763</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.4155237884412</v>
+        <v>1055.625573309337</v>
       </c>
       <c r="C8" t="n">
-        <v>481.4155237884412</v>
+        <v>1055.625573309337</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2584765001346</v>
+        <v>697.3598747025867</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2584765001346</v>
+        <v>697.3598747025867</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>690.4143739533832</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.507818430191</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232732</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711884</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794704</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457214</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113643</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1241.481122113643</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>868.015363852563</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.015363852563</v>
+        <v>1442.225413373459</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1343.758917613987</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="C9" t="n">
-        <v>1169.30588833286</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D9" t="n">
-        <v>1020.371478671608</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>861.134023666153</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>714.5994656930379</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>577.7234719081539</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>482.2681049769872</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>445.6019761092611</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>491.7863446767914</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>648.8776114216205</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>906.4287469816086</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.335642450118</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1569.11816644475</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699317</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260218</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904658</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2136.471078543836</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.506418045554</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1997.506418045554</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1997.506418045554</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1973.97191012721</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1719.734553399009</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1719.734553399009</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>1511.974254634055</v>
+        <v>360.5189432194123</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2158.505592324786</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>1989.569409396879</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>1839.452769984543</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>1740.887338843873</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>1833.941154665952</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>1935.311639356791</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>2042.129286401805</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>2120.479583467425</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.459826904658</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.459826904658</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.459826904658</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>2168.459826904658</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>2168.459826904658</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="U10" t="n">
-        <v>2168.459826904658</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="V10" t="n">
-        <v>2168.459826904658</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>2168.459826904658</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>2168.459826904658</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>2168.459826904658</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753335</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,16 +5841,16 @@
         <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6552,16 +6552,16 @@
         <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>202.303641104158</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7032,10 +7032,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416804</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>302.4540366416804</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892237</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768879</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944948</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.52450498097789</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.8481303472993</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>15.00954930701791</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>55.74112246243911</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="K2" t="n">
         <v>807146.599690006</v>
@@ -26344,16 +26344,16 @@
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253105</v>
+        <v>270592.3620253115</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023196</v>
+        <v>115410.0540231936</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285448</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881929</v>
+        <v>62913.63765881953</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197572</v>
+        <v>27875.25362197506</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189199</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189194</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.583971892</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>76435.73471936813</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105837.4979023055</v>
+        <v>-105837.4979023051</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932577</v>
+        <v>267409.2501932568</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963175</v>
+        <v>446229.6438963191</v>
       </c>
       <c r="E6" t="n">
-        <v>88534.27831994278</v>
+        <v>88499.54039450592</v>
       </c>
       <c r="F6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="G6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687711</v>
       </c>
       <c r="H6" t="n">
-        <v>689977.4858942071</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="I6" t="n">
-        <v>689977.4858942073</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="J6" t="n">
-        <v>640912.5411656627</v>
+        <v>640877.8032402267</v>
       </c>
       <c r="K6" t="n">
-        <v>627063.8482353876</v>
+        <v>627029.1103099517</v>
       </c>
       <c r="L6" t="n">
-        <v>662102.2322722314</v>
+        <v>662067.4943467963</v>
       </c>
       <c r="M6" t="n">
-        <v>532831.1053426095</v>
+        <v>532796.3674171736</v>
       </c>
       <c r="N6" t="n">
-        <v>689977.485894207</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="O6" t="n">
-        <v>689977.4858942074</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942071</v>
+        <v>689942.7479687713</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950601</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594693</v>
+        <v>431.9757039594704</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821555</v>
+        <v>210.4296883821563</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262505</v>
+        <v>94.81103524262312</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931494</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666952</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931494</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666954</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931494</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666952</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139.0484721057026</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988685</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987104</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>230.8855453062068</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.448795863376503</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>38.338181243771</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482497</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>22.96166244091361</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>34.57770336425653</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>16.60483332140353</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760064</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425946</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>291.3480759267253</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>37.96517827832065</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>202.8387753904707</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>40.23523469925604</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304068</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589177</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>152.810759648028</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>17.92756480525941</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>75.62281395867262</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>209.501424310265</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>92.12789526753883</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.9772879478637</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>109.4273643262883</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085666</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511767</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968089</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610686</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519148</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860955</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.457778263465</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062474</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721882</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658077</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468657</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872484</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378868</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236993</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377982</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734523</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635543</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528484</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054698</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830789</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656337</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
-        <v>626.4629682828348</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>637.8521160493917</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.97169333569</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070456</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811895</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695361</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644777</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974612</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730826</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890155</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092662</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437894</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635325</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930001</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872784</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554438</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501441</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230836</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761522</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756916</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235197</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
-        <v>483.8667238383904</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>499.2977362695175</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
-        <v>481.5356082478341</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558158</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
